--- a/ky/downloads/data-excel/15.3.1.1.xlsx
+++ b/ky/downloads/data-excel/15.3.1.1.xlsx
@@ -141,6 +141,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -192,13 +195,14 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -246,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -281,29 +285,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -610,11 +623,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
@@ -624,7 +635,7 @@
     <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.75" customHeight="1">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -635,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -646,8 +657,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +692,14 @@
       <c r="K4" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L4" s="4">
+        <v>2023</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -692,32 +709,38 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>1280.5999999999999</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>1287.4000000000001</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>1287.3</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>1286.4000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L5" s="19">
+        <v>1285.9939999999999</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1287.0999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -727,51 +750,59 @@
       <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>89.2</v>
       </c>
-      <c r="E6" s="16">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E6" s="15">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F6" s="15">
         <v>74</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>66.5</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>62.5</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>55.8</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>52.9</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="L6" s="20">
+        <v>42.567</v>
+      </c>
+      <c r="M6" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -781,32 +812,38 @@
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>3.8</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>3.3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>3.1</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>2.8</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>2.5</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="25.5" customHeight="1">
+      <c r="L8" s="20">
+        <v>1.651</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -816,67 +853,79 @@
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>13.6</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>13.8</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>11.7</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>11.6</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>11.1</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>8.4</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="L9" s="20">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="M9" s="14">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>0.4</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>0.4</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>1.04</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>1.5</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>0.5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>0.9</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>1</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+      <c r="L10" s="20">
+        <v>0.432</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24.75" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -886,67 +935,79 @@
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>44.4</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>40.1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>36.4</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>31.4</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>31.7</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>27.2</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>26.2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="L11" s="20">
+        <v>20.196000000000002</v>
+      </c>
+      <c r="M11" s="14">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>16.5</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>15.1</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>13.7</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>11.9</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>10.199999999999999</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>9.4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>8.4</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="24.75" thickBot="1">
+      <c r="L12" s="20">
+        <v>6.3419999999999996</v>
+      </c>
+      <c r="M12" s="14">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24.75" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
@@ -956,29 +1017,35 @@
       <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>9.3000000000000043</v>
       </c>
-      <c r="E13" s="18">
-        <v>7.9</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E13" s="17">
+        <v>8.7000000000000117</v>
+      </c>
+      <c r="F13" s="17">
         <v>7.860000000000003</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>6.9999999999999982</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>6.2000000000000028</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>6.5000000000000018</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>6.6999999999999975</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>9.7999999999999936</v>
+      </c>
+      <c r="L13" s="21">
+        <v>7.2929999999999948</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
